--- a/TAS.xlsx
+++ b/TAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="3000" windowWidth="25600" windowHeight="18460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TAS.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
   <si>
     <t>SiO2</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -122,6 +122,70 @@
   </si>
   <si>
     <t>Sample24</t>
+  </si>
+  <si>
+    <t>Marker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Style</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -132,7 +196,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +248,16 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="12"/>
+      <name val="仿宋"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,7 +276,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -214,8 +288,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -237,18 +322,38 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="22">
+    <cellStyle name="常规_REE配分模式" xfId="11"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,627 +683,855 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="A1:H25"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="11" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17">
+      <c r="J1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17">
       <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>74.52</v>
-      </c>
-      <c r="F2" s="5">
-        <v>4.3140000000000001</v>
-      </c>
-      <c r="G2" s="5">
-        <v>3.2130000000000001</v>
-      </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="17">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3">
+        <v>78.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3.4159999999999999</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.855</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="10">
+        <v>50</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="B3" s="3">
         <v>77.599999999999994</v>
       </c>
-      <c r="F3" s="5">
+      <c r="C3" s="5">
         <v>2.62</v>
       </c>
-      <c r="G3" s="5">
+      <c r="D3" s="5">
         <v>4.5679999999999996</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="17">
+      <c r="E3" s="6"/>
+      <c r="F3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="10">
+        <v>50</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>77.53</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.9060000000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4.0060000000000002</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="10">
+        <v>50</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>76.010000000000005</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3.2469999999999999</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4.7149999999999999</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="10">
+        <v>50</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <v>75.33</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.8739999999999997</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="10">
+        <v>50</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.5110000000000001</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.3760000000000003</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="10">
+        <v>50</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>74.849999999999994</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4.4139999999999997</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="10">
+        <v>50</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>74.8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2.6960000000000002</v>
+      </c>
+      <c r="D9" s="8">
+        <v>4.6580000000000004</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="10">
+        <v>50</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>74.52</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4.3140000000000001</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3.2130000000000001</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="10">
+        <v>50</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="B11" s="3">
         <v>73.739999999999995</v>
       </c>
-      <c r="F4" s="5">
+      <c r="C11" s="5">
         <v>0.36</v>
       </c>
-      <c r="G4" s="5">
+      <c r="D11" s="5">
         <v>4.1139999999999999</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="17">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>77.53</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3.9060000000000001</v>
-      </c>
-      <c r="G5" s="5">
-        <v>4.0060000000000002</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="17">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>78.8</v>
-      </c>
-      <c r="F6" s="5">
-        <v>3.4159999999999999</v>
-      </c>
-      <c r="G6" s="5">
-        <v>3.855</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="17">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>76.010000000000005</v>
-      </c>
-      <c r="F7" s="5">
-        <v>3.2469999999999999</v>
-      </c>
-      <c r="G7" s="5">
-        <v>4.7149999999999999</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3</v>
-      </c>
-      <c r="E8" s="7">
-        <v>74.8</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2.6960000000000002</v>
-      </c>
-      <c r="G8" s="8">
-        <v>4.6580000000000004</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>75.33</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2.0950000000000002</v>
-      </c>
-      <c r="G9" s="5">
-        <v>4.8739999999999997</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="17">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>74.849999999999994</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2.7370000000000001</v>
-      </c>
-      <c r="G10" s="5">
-        <v>4.4139999999999997</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="17">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>68.28</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1.502</v>
-      </c>
-      <c r="G11" s="5">
-        <v>3.8679999999999999</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="17">
+      <c r="E11" s="6"/>
+      <c r="F11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="10">
+        <v>50</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17">
       <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>74.989999999999995</v>
-      </c>
-      <c r="F12" s="5">
-        <v>3.5110000000000001</v>
-      </c>
-      <c r="G12" s="5">
-        <v>4.3760000000000003</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="17">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7">
+        <v>72.69</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2.8149999999999999</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="10">
+        <v>50</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17">
       <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="6">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3">
-        <v>53.99</v>
-      </c>
-      <c r="F13" s="5">
-        <v>5.9089999999999998</v>
-      </c>
-      <c r="G13" s="5">
-        <v>2.9140000000000001</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="17">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.657</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="10">
+        <v>50</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="B14" s="3">
         <v>69.33</v>
       </c>
-      <c r="F14" s="5">
+      <c r="C14" s="5">
         <v>0.754</v>
       </c>
-      <c r="G14" s="5">
+      <c r="D14" s="5">
         <v>1.611</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="17">
+      <c r="E14" s="6"/>
+      <c r="F14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="10">
+        <v>50</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17">
       <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7">
-        <v>72.69</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1.6040000000000001</v>
-      </c>
-      <c r="G15" s="8">
-        <v>2.8149999999999999</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="17">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>68.28</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.502</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3.8679999999999999</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="10">
+        <v>50</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17">
       <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="6">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3">
-        <v>69.849999999999994</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1.657</v>
-      </c>
-      <c r="G16" s="5">
-        <v>3.8250000000000002</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="17">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3">
+        <v>61.28</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3.0459999999999998</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5.6950000000000003</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="10">
+        <v>50</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17">
       <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="6">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>53.19</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2.5310000000000001</v>
-      </c>
-      <c r="G17" s="5">
-        <v>5.508</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="17">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3">
+        <v>60.87</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="D17" s="5">
+        <v>7.3310000000000004</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="10">
+        <v>50</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17">
       <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3">
+        <v>60.59</v>
+      </c>
+      <c r="C18" s="5">
+        <v>8.1359999999999992</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="10">
+        <v>50</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3">
+        <v>60.17</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.823</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="10">
+        <v>50</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="6">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="B20" s="3">
         <v>58.76</v>
       </c>
-      <c r="F18" s="5">
+      <c r="C20" s="5">
         <v>5.8040000000000003</v>
       </c>
-      <c r="G18" s="5">
+      <c r="D20" s="5">
         <v>4.4459999999999997</v>
       </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="17">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="6">
-        <v>3</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>51.41</v>
-      </c>
-      <c r="F19" s="5">
-        <v>6.2450000000000001</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1.661</v>
-      </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="17">
-      <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="6">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>60.87</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1.6080000000000001</v>
-      </c>
-      <c r="G20" s="5">
-        <v>7.3310000000000004</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="17">
+      <c r="E20" s="6"/>
+      <c r="F20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="10">
+        <v>50</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="17">
       <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="6">
-        <v>3</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>60.59</v>
-      </c>
-      <c r="F21" s="5">
-        <v>8.1359999999999992</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1.8440000000000001</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="17">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3">
+        <v>57.63</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3.3879999999999999</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5.8470000000000004</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="10">
+        <v>50</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="6">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2</v>
-      </c>
-      <c r="D22" s="6">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="B22" s="3">
         <v>55.92</v>
       </c>
-      <c r="F22" s="5">
+      <c r="C22" s="5">
         <v>4.585</v>
       </c>
-      <c r="G22" s="5">
+      <c r="D22" s="5">
         <v>3.593</v>
       </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="17">
+      <c r="E22" s="6"/>
+      <c r="F22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="10">
+        <v>50</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="17">
       <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="6">
-        <v>3</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>61.28</v>
-      </c>
-      <c r="F23" s="5">
-        <v>3.0459999999999998</v>
-      </c>
-      <c r="G23" s="5">
-        <v>5.6950000000000003</v>
-      </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="17">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>53.99</v>
+      </c>
+      <c r="C23" s="5">
+        <v>5.9089999999999998</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2.9140000000000001</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="10">
+        <v>50</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="17">
       <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="6">
-        <v>3</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>60.17</v>
-      </c>
-      <c r="F24" s="5">
-        <v>2.823</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="17">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>53.19</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2.5310000000000001</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5.508</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="10">
+        <v>50</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="17">
       <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
-        <v>3</v>
-      </c>
-      <c r="D25" s="6">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>57.63</v>
-      </c>
-      <c r="F25" s="5">
-        <v>3.3879999999999999</v>
-      </c>
-      <c r="G25" s="5">
-        <v>5.8470000000000004</v>
-      </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="17">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <v>51.41</v>
+      </c>
+      <c r="C25" s="5">
+        <v>6.2450000000000001</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1.661</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="10">
+        <v>50</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="17">
       <c r="A26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A2:N26">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
